--- a/common/Compose.xlsx
+++ b/common/Compose.xlsx
@@ -22,18 +22,68 @@
     <t>成品id</t>
   </si>
   <si>
-    <t>配方列表
-道具id,数量
+    <r>
+      <t xml:space="preserve">配方列表
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道具id,数量
 多个道具;隔开</t>
+    </r>
   </si>
   <si>
-    <t>id int</t>
+    <r>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
   </si>
   <si>
-    <t>item_id int</t>
+    <r>
+      <t xml:space="preserve">item_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
   </si>
   <si>
-    <t>formula array</t>
+    <r>
+      <t xml:space="preserve">formula </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
   </si>
   <si>
     <t>106001,3</t>
@@ -56,12 +106,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +126,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -84,14 +141,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,15 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,32 +232,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,44 +256,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,36 +300,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF44B36E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,7 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,103 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,32 +490,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -423,11 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,6 +520,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,36 +550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +588,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -528,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,144 +632,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,6 +837,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="0059B96F"/>
+      <color rgb="0044B36E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1002,89 +1112,91 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" ht="48.75" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" ht="17.25" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>106002</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:3">
-      <c r="A4">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>106003</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:3">
-      <c r="A5">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>106004</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:3">
-      <c r="A6">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>106005</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:3">
-      <c r="A7">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>106006</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/common/Compose.xlsx
+++ b/common/Compose.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+  <si>
+    <t>成品id</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>成品id</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">配方列表
 </t>
     </r>
@@ -39,6 +46,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -54,23 +68,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">item_id </t>
-    </r>
+    <t>index</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <i/>
-        <u/>
+        <b/>
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">formula </t>
     </r>
     <r>
@@ -86,19 +94,13 @@
     </r>
   </si>
   <si>
-    <t>106001,3</t>
+    <t>107001,3</t>
   </si>
   <si>
-    <t>106002,3</t>
+    <t>107003,3,107004,4</t>
   </si>
   <si>
-    <t>106003,3</t>
-  </si>
-  <si>
-    <t>106004,3</t>
-  </si>
-  <si>
-    <t>106005,3</t>
+    <t>107001,3,102001,5</t>
   </si>
 </sst>
 </file>
@@ -106,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -133,6 +135,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -141,52 +204,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,28 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -232,46 +273,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,181 +314,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,11 +517,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,52 +571,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,8 +598,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,137 +634,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,9 +781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,21 +1108,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" spans="1:3">
+    <row r="1" ht="48" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1146,58 +1145,91 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
+        <v>107002</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>106002</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
+        <v>107003</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
-        <v>106003</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
+        <v>107004</v>
+      </c>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>106004</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
+        <v>107005</v>
+      </c>
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
-        <v>106005</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
+        <v>101001</v>
+      </c>
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
-        <v>106006</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>101011</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>101021</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>102001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/common/Compose.xlsx
+++ b/common/Compose.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,13 +46,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -68,7 +61,20 @@
     </r>
   </si>
   <si>
-    <t>index</t>
+    <r>
+      <t xml:space="preserve">index </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
   </si>
   <si>
     <r>
@@ -108,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -135,6 +141,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -143,36 +224,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -182,74 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +248,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -273,7 +257,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,181 +320,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,41 +523,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,15 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,15 +564,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -614,6 +572,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -622,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,133 +640,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1111,7 +1117,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
@@ -1122,7 +1128,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" spans="1:3">
+    <row r="1" ht="48.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
